--- a/data/raw/diccionarios.xlsx
+++ b/data/raw/diccionarios.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicod\OneDrive\Escritorio\Proyecto_4geeks_datos\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4B7D6-3764-47C1-93A7-2594E3EAF5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724EBCB2-E53C-40F0-BFFA-F8DF9FC15C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="872" xr2:uid="{890337A1-97F6-45C5-AECC-9E88AC6D32EE}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" tabRatio="872" activeTab="1" xr2:uid="{890337A1-97F6-45C5-AECC-9E88AC6D32EE}"/>
   </bookViews>
   <sheets>
     <sheet name="region" sheetId="1" r:id="rId1"/>
-    <sheet name="n_soceco" sheetId="11" r:id="rId2"/>
-    <sheet name="area" sheetId="10" r:id="rId3"/>
-    <sheet name="sexo" sheetId="9" r:id="rId4"/>
-    <sheet name="ecivil" sheetId="8" r:id="rId5"/>
-    <sheet name="analf" sheetId="7" r:id="rId6"/>
-    <sheet name="educ" sheetId="6" r:id="rId7"/>
-    <sheet name="afil_sisprev" sheetId="5" r:id="rId8"/>
-    <sheet name="sprev_salud" sheetId="4" r:id="rId9"/>
-    <sheet name="nacionalidad" sheetId="3" r:id="rId10"/>
-    <sheet name="ten_viv" sheetId="2" r:id="rId11"/>
+    <sheet name="activ" sheetId="12" r:id="rId2"/>
+    <sheet name="n_soceco" sheetId="11" r:id="rId3"/>
+    <sheet name="area" sheetId="10" r:id="rId4"/>
+    <sheet name="sexo" sheetId="9" r:id="rId5"/>
+    <sheet name="ecivil" sheetId="8" r:id="rId6"/>
+    <sheet name="analf" sheetId="7" r:id="rId7"/>
+    <sheet name="educ" sheetId="6" r:id="rId8"/>
+    <sheet name="afil_sisprev" sheetId="5" r:id="rId9"/>
+    <sheet name="sprev_salud" sheetId="4" r:id="rId10"/>
+    <sheet name="nacionalidad" sheetId="3" r:id="rId11"/>
+    <sheet name="ten_viv" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>region</t>
   </si>
@@ -314,6 +315,21 @@
   </si>
   <si>
     <t>No lee ni escribe</t>
+  </si>
+  <si>
+    <t>Ocupados</t>
+  </si>
+  <si>
+    <t>Desocupados</t>
+  </si>
+  <si>
+    <t>Inactivos</t>
+  </si>
+  <si>
+    <t>cod_activ</t>
+  </si>
+  <si>
+    <t>activ</t>
   </si>
 </sst>
 </file>
@@ -722,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AF5202-BE44-4A34-84D0-CAE78F227CE7}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -871,6 +887,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3E80CF-0505-416D-B0D0-F1AD0FE725AE}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>-88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B95113-61DF-4EF9-A793-4E9EF6631522}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -917,7 +1004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD24877-F0BB-44FE-8201-7CE7B3953222}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -973,6 +1060,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC50349-1863-4E2A-9705-DB622AC02F7B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501C080-4129-4063-8F82-0DA290D1B55A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1051,7 +1185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8707BDF6-B3AA-4542-9D11-CE74ACBC01CA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1090,7 +1224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE31685-2D81-4F86-9103-265223FE585B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1129,7 +1263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5FDA77-AF91-478B-87F7-83AE7EB22BD3}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1216,7 +1350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B9D5E-0B8B-4897-BBFF-33AE0E69FB26}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1271,7 +1405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D7BB7C-A5D0-48C9-876C-082376091938}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1406,7 +1540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DFDB29-0915-4A38-9C12-F5E96A30C597}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1483,75 +1617,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3E80CF-0505-416D-B0D0-F1AD0FE725AE}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>-88</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>